--- a/Esercizio 1a.xlsx
+++ b/Esercizio 1a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladb\OneDrive\Desktop\ANALISI DATA\EPICODE\MODULO 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71A020E-67F8-4735-9D1A-9773EFBEB3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409AF650-1779-433B-B77A-B9A603057E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1933,7 +1933,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1951,7 +1951,6 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2223,7 +2222,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2285,8 +2284,8 @@
         <v>281000</v>
       </c>
       <c r="D2" s="5">
-        <f>C2*20%</f>
-        <v>56200</v>
+        <f>C2-(C2/1.2)</f>
+        <v>46833.333333333314</v>
       </c>
       <c r="E2" s="4" t="str">
         <f>_xlfn.CONCAT(A2," ",B2)</f>
@@ -2325,8 +2324,8 @@
         <v>323000</v>
       </c>
       <c r="D3" s="5">
-        <f t="shared" ref="D3:D66" si="0">C3*20%</f>
-        <v>64600</v>
+        <f t="shared" ref="D3:D66" si="0">C3-(C3/1.2)</f>
+        <v>53833.333333333314</v>
       </c>
       <c r="E3" s="4" t="str">
         <f t="shared" ref="E3:E66" si="1">_xlfn.CONCAT(A3," ",B3)</f>
@@ -2366,7 +2365,7 @@
       </c>
       <c r="D4" s="5">
         <f t="shared" si="0"/>
-        <v>68800</v>
+        <v>57333.333333333314</v>
       </c>
       <c r="E4" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2406,7 +2405,7 @@
       </c>
       <c r="D5" s="5">
         <f t="shared" si="0"/>
-        <v>72200</v>
+        <v>60166.666666666628</v>
       </c>
       <c r="E5" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2446,7 +2445,7 @@
       </c>
       <c r="D6" s="5">
         <f t="shared" si="0"/>
-        <v>104200</v>
+        <v>86833.333333333314</v>
       </c>
       <c r="E6" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2486,7 +2485,7 @@
       </c>
       <c r="D7" s="5">
         <f t="shared" si="0"/>
-        <v>105400</v>
+        <v>87833.333333333314</v>
       </c>
       <c r="E7" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2526,7 +2525,7 @@
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>125200</v>
+        <v>104333.33333333331</v>
       </c>
       <c r="E8" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2566,7 +2565,7 @@
       </c>
       <c r="D9" s="5">
         <f t="shared" si="0"/>
-        <v>131200</v>
+        <v>109333.33333333326</v>
       </c>
       <c r="E9" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2606,7 +2605,7 @@
       </c>
       <c r="D10" s="5">
         <f t="shared" si="0"/>
-        <v>133200</v>
+        <v>111000</v>
       </c>
       <c r="E10" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2646,7 +2645,7 @@
       </c>
       <c r="D11" s="5">
         <f t="shared" si="0"/>
-        <v>176400</v>
+        <v>147000</v>
       </c>
       <c r="E11" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2686,7 +2685,7 @@
       </c>
       <c r="D12" s="5">
         <f t="shared" si="0"/>
-        <v>221600</v>
+        <v>184666.66666666663</v>
       </c>
       <c r="E12" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2726,7 +2725,7 @@
       </c>
       <c r="D13" s="5">
         <f t="shared" si="0"/>
-        <v>263200</v>
+        <v>219333.33333333326</v>
       </c>
       <c r="E13" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2766,7 +2765,7 @@
       </c>
       <c r="D14" s="5">
         <f t="shared" si="0"/>
-        <v>318800</v>
+        <v>265666.66666666651</v>
       </c>
       <c r="E14" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2806,7 +2805,7 @@
       </c>
       <c r="D15" s="5">
         <f t="shared" si="0"/>
-        <v>543800</v>
+        <v>453166.66666666651</v>
       </c>
       <c r="E15" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2882,7 +2881,7 @@
       </c>
       <c r="D17" s="5">
         <f t="shared" si="0"/>
-        <v>818400</v>
+        <v>682000</v>
       </c>
       <c r="E17" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2922,7 +2921,7 @@
       </c>
       <c r="D18" s="5">
         <f t="shared" si="0"/>
-        <v>2771800</v>
+        <v>2309833.3333333321</v>
       </c>
       <c r="E18" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2998,7 +2997,7 @@
       </c>
       <c r="D20" s="5">
         <f t="shared" si="0"/>
-        <v>33400</v>
+        <v>27833.333333333314</v>
       </c>
       <c r="E20" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3038,7 +3037,7 @@
       </c>
       <c r="D21" s="5">
         <f t="shared" si="0"/>
-        <v>40400</v>
+        <v>33666.666666666657</v>
       </c>
       <c r="E21" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3078,7 +3077,7 @@
       </c>
       <c r="D22" s="5">
         <f t="shared" si="0"/>
-        <v>40600</v>
+        <v>33833.333333333314</v>
       </c>
       <c r="E22" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3118,7 +3117,7 @@
       </c>
       <c r="D23" s="5">
         <f t="shared" si="0"/>
-        <v>46800</v>
+        <v>39000</v>
       </c>
       <c r="E23" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3158,7 +3157,7 @@
       </c>
       <c r="D24" s="5">
         <f t="shared" si="0"/>
-        <v>50400</v>
+        <v>42000</v>
       </c>
       <c r="E24" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3198,7 +3197,7 @@
       </c>
       <c r="D25" s="5">
         <f t="shared" si="0"/>
-        <v>51800</v>
+        <v>43166.666666666657</v>
       </c>
       <c r="E25" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3238,7 +3237,7 @@
       </c>
       <c r="D26" s="5">
         <f t="shared" si="0"/>
-        <v>53800</v>
+        <v>44833.333333333314</v>
       </c>
       <c r="E26" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3278,7 +3277,7 @@
       </c>
       <c r="D27" s="5">
         <f t="shared" si="0"/>
-        <v>54200</v>
+        <v>45166.666666666657</v>
       </c>
       <c r="E27" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3318,7 +3317,7 @@
       </c>
       <c r="D28" s="5">
         <f t="shared" si="0"/>
-        <v>58400</v>
+        <v>48666.666666666657</v>
       </c>
       <c r="E28" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3358,7 +3357,7 @@
       </c>
       <c r="D29" s="5">
         <f t="shared" si="0"/>
-        <v>58600</v>
+        <v>48833.333333333314</v>
       </c>
       <c r="E29" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3398,7 +3397,7 @@
       </c>
       <c r="D30" s="5">
         <f t="shared" si="0"/>
-        <v>61400</v>
+        <v>51166.666666666657</v>
       </c>
       <c r="E30" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3438,7 +3437,7 @@
       </c>
       <c r="D31" s="5">
         <f t="shared" si="0"/>
-        <v>88000</v>
+        <v>73333.333333333314</v>
       </c>
       <c r="E31" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3478,7 +3477,7 @@
       </c>
       <c r="D32" s="5">
         <f t="shared" si="0"/>
-        <v>97400</v>
+        <v>81166.666666666628</v>
       </c>
       <c r="E32" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3518,7 +3517,7 @@
       </c>
       <c r="D33" s="5">
         <f t="shared" si="0"/>
-        <v>113200</v>
+        <v>94333.333333333314</v>
       </c>
       <c r="E33" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3558,7 +3557,7 @@
       </c>
       <c r="D34" s="5">
         <f t="shared" si="0"/>
-        <v>160400</v>
+        <v>133666.66666666663</v>
       </c>
       <c r="E34" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3598,7 +3597,7 @@
       </c>
       <c r="D35" s="5">
         <f t="shared" si="0"/>
-        <v>315800</v>
+        <v>263166.66666666651</v>
       </c>
       <c r="E35" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3674,7 +3673,7 @@
       </c>
       <c r="D37" s="5">
         <f t="shared" si="0"/>
-        <v>14000</v>
+        <v>11666.666666666664</v>
       </c>
       <c r="E37" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3714,7 +3713,7 @@
       </c>
       <c r="D38" s="5">
         <f t="shared" si="0"/>
-        <v>20800</v>
+        <v>17333.333333333328</v>
       </c>
       <c r="E38" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3754,7 +3753,7 @@
       </c>
       <c r="D39" s="5">
         <f t="shared" si="0"/>
-        <v>25400</v>
+        <v>21166.666666666657</v>
       </c>
       <c r="E39" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3794,7 +3793,7 @@
       </c>
       <c r="D40" s="5">
         <f t="shared" si="0"/>
-        <v>32400</v>
+        <v>27000</v>
       </c>
       <c r="E40" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3834,7 +3833,7 @@
       </c>
       <c r="D41" s="5">
         <f t="shared" si="0"/>
-        <v>35800</v>
+        <v>29833.333333333314</v>
       </c>
       <c r="E41" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3874,7 +3873,7 @@
       </c>
       <c r="D42" s="5">
         <f t="shared" si="0"/>
-        <v>37200</v>
+        <v>31000</v>
       </c>
       <c r="E42" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3914,7 +3913,7 @@
       </c>
       <c r="D43" s="5">
         <f t="shared" si="0"/>
-        <v>37200</v>
+        <v>31000</v>
       </c>
       <c r="E43" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3954,7 +3953,7 @@
       </c>
       <c r="D44" s="5">
         <f t="shared" si="0"/>
-        <v>40600</v>
+        <v>33833.333333333314</v>
       </c>
       <c r="E44" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3994,7 +3993,7 @@
       </c>
       <c r="D45" s="5">
         <f t="shared" si="0"/>
-        <v>42400</v>
+        <v>35333.333333333314</v>
       </c>
       <c r="E45" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4034,7 +4033,7 @@
       </c>
       <c r="D46" s="5">
         <f t="shared" si="0"/>
-        <v>44400</v>
+        <v>37000</v>
       </c>
       <c r="E46" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4074,7 +4073,7 @@
       </c>
       <c r="D47" s="5">
         <f t="shared" si="0"/>
-        <v>49000</v>
+        <v>40833.333333333314</v>
       </c>
       <c r="E47" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4114,7 +4113,7 @@
       </c>
       <c r="D48" s="5">
         <f t="shared" si="0"/>
-        <v>50200</v>
+        <v>41833.333333333314</v>
       </c>
       <c r="E48" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4154,7 +4153,7 @@
       </c>
       <c r="D49" s="5">
         <f t="shared" si="0"/>
-        <v>51400</v>
+        <v>42833.333333333314</v>
       </c>
       <c r="E49" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4194,7 +4193,7 @@
       </c>
       <c r="D50" s="5">
         <f t="shared" si="0"/>
-        <v>53800</v>
+        <v>44833.333333333314</v>
       </c>
       <c r="E50" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4234,7 +4233,7 @@
       </c>
       <c r="D51" s="5">
         <f t="shared" si="0"/>
-        <v>62800</v>
+        <v>52333.333333333314</v>
       </c>
       <c r="E51" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4274,7 +4273,7 @@
       </c>
       <c r="D52" s="5">
         <f t="shared" si="0"/>
-        <v>65000</v>
+        <v>54166.666666666628</v>
       </c>
       <c r="E52" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4314,7 +4313,7 @@
       </c>
       <c r="D53" s="5">
         <f t="shared" si="0"/>
-        <v>69400</v>
+        <v>57833.333333333314</v>
       </c>
       <c r="E53" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4354,7 +4353,7 @@
       </c>
       <c r="D54" s="5">
         <f t="shared" si="0"/>
-        <v>73800</v>
+        <v>61500</v>
       </c>
       <c r="E54" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4394,7 +4393,7 @@
       </c>
       <c r="D55" s="5">
         <f t="shared" si="0"/>
-        <v>80400</v>
+        <v>67000</v>
       </c>
       <c r="E55" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4434,7 +4433,7 @@
       </c>
       <c r="D56" s="5">
         <f t="shared" si="0"/>
-        <v>94200</v>
+        <v>78500</v>
       </c>
       <c r="E56" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4474,7 +4473,7 @@
       </c>
       <c r="D57" s="5">
         <f t="shared" si="0"/>
-        <v>95200</v>
+        <v>79333.333333333314</v>
       </c>
       <c r="E57" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4514,7 +4513,7 @@
       </c>
       <c r="D58" s="5">
         <f t="shared" si="0"/>
-        <v>98400</v>
+        <v>82000</v>
       </c>
       <c r="E58" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4554,7 +4553,7 @@
       </c>
       <c r="D59" s="5">
         <f t="shared" si="0"/>
-        <v>106200</v>
+        <v>88500</v>
       </c>
       <c r="E59" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4594,7 +4593,7 @@
       </c>
       <c r="D60" s="5">
         <f t="shared" si="0"/>
-        <v>110400</v>
+        <v>92000</v>
       </c>
       <c r="E60" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4634,7 +4633,7 @@
       </c>
       <c r="D61" s="5">
         <f t="shared" si="0"/>
-        <v>297400</v>
+        <v>247833.33333333326</v>
       </c>
       <c r="E61" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4710,7 +4709,7 @@
       </c>
       <c r="D63" s="5">
         <f t="shared" si="0"/>
-        <v>20200</v>
+        <v>16833.333333333328</v>
       </c>
       <c r="E63" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4750,7 +4749,7 @@
       </c>
       <c r="D64" s="5">
         <f t="shared" si="0"/>
-        <v>7600</v>
+        <v>6333.3333333333321</v>
       </c>
       <c r="E64" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4790,7 +4789,7 @@
       </c>
       <c r="D65" s="5">
         <f t="shared" si="0"/>
-        <v>27400</v>
+        <v>22833.333333333328</v>
       </c>
       <c r="E65" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4830,7 +4829,7 @@
       </c>
       <c r="D66" s="5">
         <f t="shared" si="0"/>
-        <v>44400</v>
+        <v>37000</v>
       </c>
       <c r="E66" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4869,8 +4868,8 @@
         <v>501000</v>
       </c>
       <c r="D67" s="5">
-        <f t="shared" ref="D67:D130" si="2">C67*20%</f>
-        <v>100200</v>
+        <f t="shared" ref="D67:D130" si="2">C67-(C67/1.2)</f>
+        <v>83500</v>
       </c>
       <c r="E67" s="4" t="str">
         <f t="shared" ref="E67:E130" si="3">_xlfn.CONCAT(A67," ",B67)</f>
@@ -4910,7 +4909,7 @@
       </c>
       <c r="D68" s="5">
         <f t="shared" si="2"/>
-        <v>85600</v>
+        <v>71333.333333333314</v>
       </c>
       <c r="E68" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4950,7 +4949,7 @@
       </c>
       <c r="D69" s="5">
         <f t="shared" si="2"/>
-        <v>112200</v>
+        <v>93500</v>
       </c>
       <c r="E69" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4990,7 +4989,7 @@
       </c>
       <c r="D70" s="5">
         <f t="shared" si="2"/>
-        <v>315600</v>
+        <v>263000</v>
       </c>
       <c r="E70" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5030,7 +5029,7 @@
       </c>
       <c r="D71" s="5">
         <f t="shared" si="2"/>
-        <v>6800</v>
+        <v>5666.6666666666642</v>
       </c>
       <c r="E71" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5070,7 +5069,7 @@
       </c>
       <c r="D72" s="5">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>3333.3333333333321</v>
       </c>
       <c r="E72" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5110,7 +5109,7 @@
       </c>
       <c r="D73" s="5">
         <f t="shared" si="2"/>
-        <v>4600</v>
+        <v>3833.3333333333321</v>
       </c>
       <c r="E73" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5148,7 +5147,7 @@
       </c>
       <c r="D74" s="5">
         <f t="shared" si="2"/>
-        <v>19600</v>
+        <v>16333.333333333328</v>
       </c>
       <c r="E74" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5186,7 +5185,7 @@
       </c>
       <c r="D75" s="5">
         <f t="shared" si="2"/>
-        <v>50200</v>
+        <v>41833.333333333314</v>
       </c>
       <c r="E75" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5224,7 +5223,7 @@
       </c>
       <c r="D76" s="5">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="E76" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5262,7 +5261,7 @@
       </c>
       <c r="D77" s="5">
         <f t="shared" si="2"/>
-        <v>2800</v>
+        <v>2333.3333333333321</v>
       </c>
       <c r="E77" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5338,7 +5337,7 @@
       </c>
       <c r="D79" s="5">
         <f t="shared" si="2"/>
-        <v>79800</v>
+        <v>66500</v>
       </c>
       <c r="E79" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5378,7 +5377,7 @@
       </c>
       <c r="D80" s="5">
         <f t="shared" si="2"/>
-        <v>51800</v>
+        <v>43166.666666666657</v>
       </c>
       <c r="E80" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5418,7 +5417,7 @@
       </c>
       <c r="D81" s="5">
         <f t="shared" si="2"/>
-        <v>64800</v>
+        <v>54000</v>
       </c>
       <c r="E81" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5458,7 +5457,7 @@
       </c>
       <c r="D82" s="5">
         <f t="shared" si="2"/>
-        <v>75600</v>
+        <v>63000</v>
       </c>
       <c r="E82" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5498,7 +5497,7 @@
       </c>
       <c r="D83" s="5">
         <f t="shared" si="2"/>
-        <v>93800</v>
+        <v>78166.666666666628</v>
       </c>
       <c r="E83" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5538,7 +5537,7 @@
       </c>
       <c r="D84" s="5">
         <f t="shared" si="2"/>
-        <v>111200</v>
+        <v>92666.666666666628</v>
       </c>
       <c r="E84" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5578,7 +5577,7 @@
       </c>
       <c r="D85" s="5">
         <f t="shared" si="2"/>
-        <v>95200</v>
+        <v>79333.333333333314</v>
       </c>
       <c r="E85" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5618,7 +5617,7 @@
       </c>
       <c r="D86" s="5">
         <f t="shared" si="2"/>
-        <v>95400</v>
+        <v>79500</v>
       </c>
       <c r="E86" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5658,7 +5657,7 @@
       </c>
       <c r="D87" s="5">
         <f t="shared" si="2"/>
-        <v>111200</v>
+        <v>92666.666666666628</v>
       </c>
       <c r="E87" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5698,7 +5697,7 @@
       </c>
       <c r="D88" s="5">
         <f t="shared" si="2"/>
-        <v>139000</v>
+        <v>115833.33333333326</v>
       </c>
       <c r="E88" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5738,7 +5737,7 @@
       </c>
       <c r="D89" s="5">
         <f t="shared" si="2"/>
-        <v>255800</v>
+        <v>213166.66666666651</v>
       </c>
       <c r="E89" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5778,7 +5777,7 @@
       </c>
       <c r="D90" s="5">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>5833.3333333333321</v>
       </c>
       <c r="E90" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5818,7 +5817,7 @@
       </c>
       <c r="D91" s="5">
         <f t="shared" si="2"/>
-        <v>35000</v>
+        <v>29166.666666666657</v>
       </c>
       <c r="E91" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5858,7 +5857,7 @@
       </c>
       <c r="D92" s="5">
         <f t="shared" si="2"/>
-        <v>54400</v>
+        <v>45333.333333333314</v>
       </c>
       <c r="E92" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5898,7 +5897,7 @@
       </c>
       <c r="D93" s="5">
         <f t="shared" si="2"/>
-        <v>39600</v>
+        <v>33000</v>
       </c>
       <c r="E93" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5938,7 +5937,7 @@
       </c>
       <c r="D94" s="5">
         <f t="shared" si="2"/>
-        <v>58000</v>
+        <v>48333.333333333314</v>
       </c>
       <c r="E94" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5978,7 +5977,7 @@
       </c>
       <c r="D95" s="5">
         <f t="shared" si="2"/>
-        <v>117800</v>
+        <v>98166.666666666628</v>
       </c>
       <c r="E95" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6018,7 +6017,7 @@
       </c>
       <c r="D96" s="5">
         <f t="shared" si="2"/>
-        <v>148600</v>
+        <v>123833.33333333326</v>
       </c>
       <c r="E96" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6058,7 +6057,7 @@
       </c>
       <c r="D97" s="5">
         <f t="shared" si="2"/>
-        <v>54200</v>
+        <v>45166.666666666657</v>
       </c>
       <c r="E97" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6098,7 +6097,7 @@
       </c>
       <c r="D98" s="5">
         <f t="shared" si="2"/>
-        <v>126400</v>
+        <v>105333.33333333326</v>
       </c>
       <c r="E98" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6138,7 +6137,7 @@
       </c>
       <c r="D99" s="5">
         <f t="shared" si="2"/>
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="E99" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6178,7 +6177,7 @@
       </c>
       <c r="D100" s="5">
         <f t="shared" si="2"/>
-        <v>800</v>
+        <v>666.66666666666652</v>
       </c>
       <c r="E100" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6218,7 +6217,7 @@
       </c>
       <c r="D101" s="5">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>833.33333333333303</v>
       </c>
       <c r="E101" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6258,7 +6257,7 @@
       </c>
       <c r="D102" s="5">
         <f t="shared" si="2"/>
-        <v>8200</v>
+        <v>6833.3333333333285</v>
       </c>
       <c r="E102" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6334,7 +6333,7 @@
       </c>
       <c r="D104" s="5">
         <f t="shared" si="2"/>
-        <v>147400</v>
+        <v>122833.33333333326</v>
       </c>
       <c r="E104" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6374,7 +6373,7 @@
       </c>
       <c r="D105" s="5">
         <f t="shared" si="2"/>
-        <v>182000</v>
+        <v>151666.66666666663</v>
       </c>
       <c r="E105" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6412,7 +6411,7 @@
       </c>
       <c r="D106" s="5">
         <f t="shared" si="2"/>
-        <v>48200</v>
+        <v>40166.666666666657</v>
       </c>
       <c r="E106" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6488,7 +6487,7 @@
       </c>
       <c r="D108" s="5">
         <f t="shared" si="2"/>
-        <v>22400</v>
+        <v>18666.666666666657</v>
       </c>
       <c r="E108" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6528,7 +6527,7 @@
       </c>
       <c r="D109" s="5">
         <f t="shared" si="2"/>
-        <v>22600</v>
+        <v>18833.333333333328</v>
       </c>
       <c r="E109" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6568,7 +6567,7 @@
       </c>
       <c r="D110" s="5">
         <f t="shared" si="2"/>
-        <v>24200</v>
+        <v>20166.666666666657</v>
       </c>
       <c r="E110" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6608,7 +6607,7 @@
       </c>
       <c r="D111" s="5">
         <f t="shared" si="2"/>
-        <v>32000</v>
+        <v>26666.666666666657</v>
       </c>
       <c r="E111" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6648,7 +6647,7 @@
       </c>
       <c r="D112" s="5">
         <f t="shared" si="2"/>
-        <v>39000</v>
+        <v>32500</v>
       </c>
       <c r="E112" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6688,7 +6687,7 @@
       </c>
       <c r="D113" s="5">
         <f t="shared" si="2"/>
-        <v>43000</v>
+        <v>35833.333333333314</v>
       </c>
       <c r="E113" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6728,7 +6727,7 @@
       </c>
       <c r="D114" s="5">
         <f t="shared" si="2"/>
-        <v>64200</v>
+        <v>53500</v>
       </c>
       <c r="E114" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6768,7 +6767,7 @@
       </c>
       <c r="D115" s="5">
         <f t="shared" si="2"/>
-        <v>122800</v>
+        <v>102333.33333333331</v>
       </c>
       <c r="E115" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6844,7 +6843,7 @@
       </c>
       <c r="D117" s="5">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="E117" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6884,7 +6883,7 @@
       </c>
       <c r="D118" s="5">
         <f t="shared" si="2"/>
-        <v>6800</v>
+        <v>5666.6666666666642</v>
       </c>
       <c r="E118" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6924,7 +6923,7 @@
       </c>
       <c r="D119" s="5">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>5833.3333333333321</v>
       </c>
       <c r="E119" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6964,7 +6963,7 @@
       </c>
       <c r="D120" s="5">
         <f t="shared" si="2"/>
-        <v>15400</v>
+        <v>12833.333333333328</v>
       </c>
       <c r="E120" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7004,7 +7003,7 @@
       </c>
       <c r="D121" s="5">
         <f t="shared" si="2"/>
-        <v>144600</v>
+        <v>120500</v>
       </c>
       <c r="E121" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7044,7 +7043,7 @@
       </c>
       <c r="D122" s="5">
         <f t="shared" si="2"/>
-        <v>148400</v>
+        <v>123666.66666666663</v>
       </c>
       <c r="E122" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7084,7 +7083,7 @@
       </c>
       <c r="D123" s="5">
         <f t="shared" si="2"/>
-        <v>155600</v>
+        <v>129666.66666666663</v>
       </c>
       <c r="E123" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7124,7 +7123,7 @@
       </c>
       <c r="D124" s="5">
         <f t="shared" si="2"/>
-        <v>175600</v>
+        <v>146333.33333333326</v>
       </c>
       <c r="E124" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7164,7 +7163,7 @@
       </c>
       <c r="D125" s="5">
         <f t="shared" si="2"/>
-        <v>176600</v>
+        <v>147166.66666666663</v>
       </c>
       <c r="E125" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7204,7 +7203,7 @@
       </c>
       <c r="D126" s="5">
         <f t="shared" si="2"/>
-        <v>182600</v>
+        <v>152166.66666666663</v>
       </c>
       <c r="E126" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7244,7 +7243,7 @@
       </c>
       <c r="D127" s="5">
         <f t="shared" si="2"/>
-        <v>225000</v>
+        <v>187500</v>
       </c>
       <c r="E127" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7318,7 +7317,7 @@
       </c>
       <c r="D129" s="5">
         <f t="shared" si="2"/>
-        <v>6600</v>
+        <v>5500</v>
       </c>
       <c r="E129" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7356,7 +7355,7 @@
       </c>
       <c r="D130" s="5">
         <f t="shared" si="2"/>
-        <v>10400</v>
+        <v>8666.6666666666642</v>
       </c>
       <c r="E130" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7393,8 +7392,8 @@
         <v>97000</v>
       </c>
       <c r="D131" s="5">
-        <f t="shared" ref="D131:D194" si="4">C131*20%</f>
-        <v>19400</v>
+        <f t="shared" ref="D131:D194" si="4">C131-(C131/1.2)</f>
+        <v>16166.666666666657</v>
       </c>
       <c r="E131" s="4" t="str">
         <f t="shared" ref="E131:E194" si="5">_xlfn.CONCAT(A131," ",B131)</f>
@@ -7472,7 +7471,7 @@
       </c>
       <c r="D133" s="5">
         <f t="shared" si="4"/>
-        <v>26200</v>
+        <v>21833.333333333328</v>
       </c>
       <c r="E133" s="4" t="str">
         <f t="shared" si="5"/>
@@ -7512,7 +7511,7 @@
       </c>
       <c r="D134" s="5">
         <f t="shared" si="4"/>
-        <v>33800</v>
+        <v>28166.666666666657</v>
       </c>
       <c r="E134" s="4" t="str">
         <f t="shared" si="5"/>
@@ -7552,7 +7551,7 @@
       </c>
       <c r="D135" s="5">
         <f t="shared" si="4"/>
-        <v>38000</v>
+        <v>31666.666666666657</v>
       </c>
       <c r="E135" s="4" t="str">
         <f t="shared" si="5"/>
@@ -7592,7 +7591,7 @@
       </c>
       <c r="D136" s="5">
         <f t="shared" si="4"/>
-        <v>38200</v>
+        <v>31833.333333333314</v>
       </c>
       <c r="E136" s="4" t="str">
         <f t="shared" si="5"/>
@@ -7632,7 +7631,7 @@
       </c>
       <c r="D137" s="5">
         <f t="shared" si="4"/>
-        <v>39400</v>
+        <v>32833.333333333314</v>
       </c>
       <c r="E137" s="4" t="str">
         <f t="shared" si="5"/>
@@ -7672,7 +7671,7 @@
       </c>
       <c r="D138" s="5">
         <f t="shared" si="4"/>
-        <v>40200</v>
+        <v>33500</v>
       </c>
       <c r="E138" s="4" t="str">
         <f t="shared" si="5"/>
@@ -7712,7 +7711,7 @@
       </c>
       <c r="D139" s="5">
         <f t="shared" si="4"/>
-        <v>44000</v>
+        <v>36666.666666666657</v>
       </c>
       <c r="E139" s="4" t="str">
         <f t="shared" si="5"/>
@@ -7752,7 +7751,7 @@
       </c>
       <c r="D140" s="5">
         <f t="shared" si="4"/>
-        <v>50000</v>
+        <v>41666.666666666657</v>
       </c>
       <c r="E140" s="4" t="str">
         <f t="shared" si="5"/>
@@ -7792,7 +7791,7 @@
       </c>
       <c r="D141" s="5">
         <f t="shared" si="4"/>
-        <v>51400</v>
+        <v>42833.333333333314</v>
       </c>
       <c r="E141" s="4" t="str">
         <f t="shared" si="5"/>
@@ -7832,7 +7831,7 @@
       </c>
       <c r="D142" s="5">
         <f t="shared" si="4"/>
-        <v>55600</v>
+        <v>46333.333333333314</v>
       </c>
       <c r="E142" s="4" t="str">
         <f t="shared" si="5"/>
@@ -7872,7 +7871,7 @@
       </c>
       <c r="D143" s="5">
         <f t="shared" si="4"/>
-        <v>56000</v>
+        <v>46666.666666666657</v>
       </c>
       <c r="E143" s="4" t="str">
         <f t="shared" si="5"/>
@@ -7912,7 +7911,7 @@
       </c>
       <c r="D144" s="5">
         <f t="shared" si="4"/>
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="E144" s="4" t="str">
         <f t="shared" si="5"/>
@@ -7952,7 +7951,7 @@
       </c>
       <c r="D145" s="5">
         <f t="shared" si="4"/>
-        <v>61000</v>
+        <v>50833.333333333314</v>
       </c>
       <c r="E145" s="4" t="str">
         <f t="shared" si="5"/>
@@ -7992,7 +7991,7 @@
       </c>
       <c r="D146" s="5">
         <f t="shared" si="4"/>
-        <v>67000</v>
+        <v>55833.333333333314</v>
       </c>
       <c r="E146" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8032,7 +8031,7 @@
       </c>
       <c r="D147" s="5">
         <f t="shared" si="4"/>
-        <v>72000</v>
+        <v>60000</v>
       </c>
       <c r="E147" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8072,7 +8071,7 @@
       </c>
       <c r="D148" s="5">
         <f t="shared" si="4"/>
-        <v>85800</v>
+        <v>71500</v>
       </c>
       <c r="E148" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8112,7 +8111,7 @@
       </c>
       <c r="D149" s="5">
         <f t="shared" si="4"/>
-        <v>140200</v>
+        <v>116833.33333333326</v>
       </c>
       <c r="E149" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8188,7 +8187,7 @@
       </c>
       <c r="D151" s="5">
         <f t="shared" si="4"/>
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="E151" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8228,7 +8227,7 @@
       </c>
       <c r="D152" s="5">
         <f t="shared" si="4"/>
-        <v>13800</v>
+        <v>11500</v>
       </c>
       <c r="E152" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8268,7 +8267,7 @@
       </c>
       <c r="D153" s="5">
         <f t="shared" si="4"/>
-        <v>17800</v>
+        <v>14833.333333333328</v>
       </c>
       <c r="E153" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8308,7 +8307,7 @@
       </c>
       <c r="D154" s="5">
         <f t="shared" si="4"/>
-        <v>27600</v>
+        <v>23000</v>
       </c>
       <c r="E154" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8348,7 +8347,7 @@
       </c>
       <c r="D155" s="5">
         <f t="shared" si="4"/>
-        <v>39200</v>
+        <v>32666.666666666657</v>
       </c>
       <c r="E155" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8388,7 +8387,7 @@
       </c>
       <c r="D156" s="5">
         <f t="shared" si="4"/>
-        <v>65800</v>
+        <v>54833.333333333314</v>
       </c>
       <c r="E156" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8428,7 +8427,7 @@
       </c>
       <c r="D157" s="5">
         <f t="shared" si="4"/>
-        <v>59000</v>
+        <v>49166.666666666657</v>
       </c>
       <c r="E157" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8468,7 +8467,7 @@
       </c>
       <c r="D158" s="5">
         <f t="shared" si="4"/>
-        <v>3800</v>
+        <v>3166.6666666666661</v>
       </c>
       <c r="E158" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8508,7 +8507,7 @@
       </c>
       <c r="D159" s="5">
         <f t="shared" si="4"/>
-        <v>5200</v>
+        <v>4333.3333333333321</v>
       </c>
       <c r="E159" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8548,7 +8547,7 @@
       </c>
       <c r="D160" s="5">
         <f t="shared" si="4"/>
-        <v>5600</v>
+        <v>4666.6666666666642</v>
       </c>
       <c r="E160" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8588,7 +8587,7 @@
       </c>
       <c r="D161" s="5">
         <f t="shared" si="4"/>
-        <v>11200</v>
+        <v>9333.3333333333285</v>
       </c>
       <c r="E161" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8662,7 +8661,7 @@
       </c>
       <c r="D163" s="5">
         <f t="shared" si="4"/>
-        <v>43200</v>
+        <v>36000</v>
       </c>
       <c r="E163" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8700,7 +8699,7 @@
       </c>
       <c r="D164" s="5">
         <f t="shared" si="4"/>
-        <v>50000</v>
+        <v>41666.666666666657</v>
       </c>
       <c r="E164" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8738,7 +8737,7 @@
       </c>
       <c r="D165" s="5">
         <f t="shared" si="4"/>
-        <v>76400</v>
+        <v>63666.666666666628</v>
       </c>
       <c r="E165" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8776,7 +8775,7 @@
       </c>
       <c r="D166" s="5">
         <f t="shared" si="4"/>
-        <v>104800</v>
+        <v>87333.333333333314</v>
       </c>
       <c r="E166" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8814,7 +8813,7 @@
       </c>
       <c r="D167" s="5">
         <f t="shared" si="4"/>
-        <v>151400</v>
+        <v>126166.66666666663</v>
       </c>
       <c r="E167" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8852,7 +8851,7 @@
       </c>
       <c r="D168" s="5">
         <f t="shared" si="4"/>
-        <v>209000</v>
+        <v>174166.66666666663</v>
       </c>
       <c r="E168" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8890,7 +8889,7 @@
       </c>
       <c r="D169" s="5">
         <f t="shared" si="4"/>
-        <v>313600</v>
+        <v>261333.33333333326</v>
       </c>
       <c r="E169" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8928,7 +8927,7 @@
       </c>
       <c r="D170" s="5">
         <f t="shared" si="4"/>
-        <v>23400</v>
+        <v>19500</v>
       </c>
       <c r="E170" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8966,7 +8965,7 @@
       </c>
       <c r="D171" s="5">
         <f t="shared" si="4"/>
-        <v>31600</v>
+        <v>26333.333333333314</v>
       </c>
       <c r="E171" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9004,7 +9003,7 @@
       </c>
       <c r="D172" s="5">
         <f t="shared" si="4"/>
-        <v>52000</v>
+        <v>43333.333333333314</v>
       </c>
       <c r="E172" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9042,7 +9041,7 @@
       </c>
       <c r="D173" s="5">
         <f t="shared" si="4"/>
-        <v>38600</v>
+        <v>32166.666666666657</v>
       </c>
       <c r="E173" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9080,7 +9079,7 @@
       </c>
       <c r="D174" s="5">
         <f t="shared" si="4"/>
-        <v>54000</v>
+        <v>45000</v>
       </c>
       <c r="E174" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9118,7 +9117,7 @@
       </c>
       <c r="D175" s="5">
         <f t="shared" si="4"/>
-        <v>62800</v>
+        <v>52333.333333333314</v>
       </c>
       <c r="E175" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9156,7 +9155,7 @@
       </c>
       <c r="D176" s="5">
         <f t="shared" si="4"/>
-        <v>178800</v>
+        <v>149000</v>
       </c>
       <c r="E176" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9194,7 +9193,7 @@
       </c>
       <c r="D177" s="5">
         <f t="shared" si="4"/>
-        <v>208000</v>
+        <v>173333.33333333326</v>
       </c>
       <c r="E177" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9232,7 +9231,7 @@
       </c>
       <c r="D178" s="5">
         <f t="shared" si="4"/>
-        <v>1600</v>
+        <v>1333.333333333333</v>
       </c>
       <c r="E178" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9270,7 +9269,7 @@
       </c>
       <c r="D179" s="5">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>1666.6666666666661</v>
       </c>
       <c r="E179" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9308,7 +9307,7 @@
       </c>
       <c r="D180" s="5">
         <f t="shared" si="4"/>
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="E180" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9348,7 +9347,7 @@
       </c>
       <c r="D181" s="5">
         <f t="shared" si="4"/>
-        <v>2200</v>
+        <v>1833.3333333333321</v>
       </c>
       <c r="E181" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9388,7 +9387,7 @@
       </c>
       <c r="D182" s="5">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>1666.6666666666661</v>
       </c>
       <c r="E182" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9428,7 +9427,7 @@
       </c>
       <c r="D183" s="5">
         <f t="shared" si="4"/>
-        <v>5200</v>
+        <v>4333.3333333333321</v>
       </c>
       <c r="E183" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9504,7 +9503,7 @@
       </c>
       <c r="D185" s="5">
         <f t="shared" si="4"/>
-        <v>4400</v>
+        <v>3666.6666666666642</v>
       </c>
       <c r="E185" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9544,7 +9543,7 @@
       </c>
       <c r="D186" s="5">
         <f t="shared" si="4"/>
-        <v>12600</v>
+        <v>10500</v>
       </c>
       <c r="E186" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9584,7 +9583,7 @@
       </c>
       <c r="D187" s="5">
         <f t="shared" si="4"/>
-        <v>12600</v>
+        <v>10500</v>
       </c>
       <c r="E187" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9624,7 +9623,7 @@
       </c>
       <c r="D188" s="5">
         <f t="shared" si="4"/>
-        <v>5200</v>
+        <v>4333.3333333333321</v>
       </c>
       <c r="E188" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9664,7 +9663,7 @@
       </c>
       <c r="D189" s="5">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>4166.6666666666642</v>
       </c>
       <c r="E189" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9704,7 +9703,7 @@
       </c>
       <c r="D190" s="5">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>4166.6666666666642</v>
       </c>
       <c r="E190" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9744,7 +9743,7 @@
       </c>
       <c r="D191" s="5">
         <f t="shared" si="4"/>
-        <v>9200</v>
+        <v>7666.6666666666642</v>
       </c>
       <c r="E191" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9820,7 +9819,7 @@
       </c>
       <c r="D193" s="5">
         <f t="shared" si="4"/>
-        <v>7400</v>
+        <v>6166.6666666666642</v>
       </c>
       <c r="E193" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9860,7 +9859,7 @@
       </c>
       <c r="D194" s="5">
         <f t="shared" si="4"/>
-        <v>7400</v>
+        <v>6166.6666666666642</v>
       </c>
       <c r="E194" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9899,8 +9898,8 @@
         <v>11000</v>
       </c>
       <c r="D195" s="5">
-        <f t="shared" ref="D195:D258" si="6">C195*20%</f>
-        <v>2200</v>
+        <f t="shared" ref="D195:D258" si="6">C195-(C195/1.2)</f>
+        <v>1833.3333333333321</v>
       </c>
       <c r="E195" s="4" t="str">
         <f t="shared" ref="E195:E258" si="7">_xlfn.CONCAT(A195," ",B195)</f>
@@ -9940,7 +9939,7 @@
       </c>
       <c r="D196" s="5">
         <f t="shared" si="6"/>
-        <v>9200</v>
+        <v>7666.6666666666642</v>
       </c>
       <c r="E196" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9980,7 +9979,7 @@
       </c>
       <c r="D197" s="5">
         <f t="shared" si="6"/>
-        <v>3800</v>
+        <v>3166.6666666666661</v>
       </c>
       <c r="E197" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10020,7 +10019,7 @@
       </c>
       <c r="D198" s="5">
         <f t="shared" si="6"/>
-        <v>2600</v>
+        <v>2166.6666666666661</v>
       </c>
       <c r="E198" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10060,7 +10059,7 @@
       </c>
       <c r="D199" s="5">
         <f t="shared" si="6"/>
-        <v>5200</v>
+        <v>4333.3333333333321</v>
       </c>
       <c r="E199" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10100,7 +10099,7 @@
       </c>
       <c r="D200" s="5">
         <f t="shared" si="6"/>
-        <v>5200</v>
+        <v>4333.3333333333321</v>
       </c>
       <c r="E200" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10140,7 +10139,7 @@
       </c>
       <c r="D201" s="5">
         <f t="shared" si="6"/>
-        <v>4000</v>
+        <v>3333.3333333333321</v>
       </c>
       <c r="E201" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10180,7 +10179,7 @@
       </c>
       <c r="D202" s="5">
         <f t="shared" si="6"/>
-        <v>9800</v>
+        <v>8166.6666666666642</v>
       </c>
       <c r="E202" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10220,7 +10219,7 @@
       </c>
       <c r="D203" s="5">
         <f t="shared" si="6"/>
-        <v>6600</v>
+        <v>5500</v>
       </c>
       <c r="E203" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10260,7 +10259,7 @@
       </c>
       <c r="D204" s="5">
         <f t="shared" si="6"/>
-        <v>13600</v>
+        <v>11333.333333333328</v>
       </c>
       <c r="E204" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10300,7 +10299,7 @@
       </c>
       <c r="D205" s="5">
         <f t="shared" si="6"/>
-        <v>6600</v>
+        <v>5500</v>
       </c>
       <c r="E205" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10340,7 +10339,7 @@
       </c>
       <c r="D206" s="5">
         <f t="shared" si="6"/>
-        <v>29400</v>
+        <v>24500</v>
       </c>
       <c r="E206" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10380,7 +10379,7 @@
       </c>
       <c r="D207" s="5">
         <f t="shared" si="6"/>
-        <v>30200</v>
+        <v>25166.666666666657</v>
       </c>
       <c r="E207" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10420,7 +10419,7 @@
       </c>
       <c r="D208" s="5">
         <f t="shared" si="6"/>
-        <v>39400</v>
+        <v>32833.333333333314</v>
       </c>
       <c r="E208" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10460,7 +10459,7 @@
       </c>
       <c r="D209" s="5">
         <f t="shared" si="6"/>
-        <v>62000</v>
+        <v>51666.666666666657</v>
       </c>
       <c r="E209" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10500,7 +10499,7 @@
       </c>
       <c r="D210" s="5">
         <f t="shared" si="6"/>
-        <v>54200</v>
+        <v>45166.666666666657</v>
       </c>
       <c r="E210" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10540,7 +10539,7 @@
       </c>
       <c r="D211" s="5">
         <f t="shared" si="6"/>
-        <v>91600</v>
+        <v>76333.333333333314</v>
       </c>
       <c r="E211" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10580,7 +10579,7 @@
       </c>
       <c r="D212" s="5">
         <f t="shared" si="6"/>
-        <v>82400</v>
+        <v>68666.666666666628</v>
       </c>
       <c r="E212" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10620,7 +10619,7 @@
       </c>
       <c r="D213" s="5">
         <f t="shared" si="6"/>
-        <v>161400</v>
+        <v>134500</v>
       </c>
       <c r="E213" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10658,7 +10657,7 @@
       </c>
       <c r="D214" s="5">
         <f t="shared" si="6"/>
-        <v>800</v>
+        <v>666.66666666666652</v>
       </c>
       <c r="E214" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10696,7 +10695,7 @@
       </c>
       <c r="D215" s="5">
         <f t="shared" si="6"/>
-        <v>16200</v>
+        <v>13500</v>
       </c>
       <c r="E215" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10734,7 +10733,7 @@
       </c>
       <c r="D216" s="5">
         <f t="shared" si="6"/>
-        <v>25000</v>
+        <v>20833.333333333328</v>
       </c>
       <c r="E216" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10772,7 +10771,7 @@
       </c>
       <c r="D217" s="5">
         <f t="shared" si="6"/>
-        <v>19600</v>
+        <v>16333.333333333328</v>
       </c>
       <c r="E217" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10810,7 +10809,7 @@
       </c>
       <c r="D218" s="5">
         <f t="shared" si="6"/>
-        <v>28000</v>
+        <v>23333.333333333328</v>
       </c>
       <c r="E218" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10850,7 +10849,7 @@
       </c>
       <c r="D219" s="5">
         <f t="shared" si="6"/>
-        <v>1000</v>
+        <v>833.33333333333303</v>
       </c>
       <c r="E219" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10890,7 +10889,7 @@
       </c>
       <c r="D220" s="5">
         <f t="shared" si="6"/>
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E220" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10928,7 +10927,7 @@
       </c>
       <c r="D221" s="5">
         <f t="shared" si="6"/>
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="E221" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10968,7 +10967,7 @@
       </c>
       <c r="D222" s="5">
         <f t="shared" si="6"/>
-        <v>1600</v>
+        <v>1333.333333333333</v>
       </c>
       <c r="E222" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11006,7 +11005,7 @@
       </c>
       <c r="D223" s="5">
         <f t="shared" si="6"/>
-        <v>2200</v>
+        <v>1833.3333333333321</v>
       </c>
       <c r="E223" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11046,7 +11045,7 @@
       </c>
       <c r="D224" s="5">
         <f t="shared" si="6"/>
-        <v>4200</v>
+        <v>3500</v>
       </c>
       <c r="E224" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11086,7 +11085,7 @@
       </c>
       <c r="D225" s="5">
         <f t="shared" si="6"/>
-        <v>2800</v>
+        <v>2333.3333333333321</v>
       </c>
       <c r="E225" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11126,7 +11125,7 @@
       </c>
       <c r="D226" s="5">
         <f t="shared" si="6"/>
-        <v>4600</v>
+        <v>3833.3333333333321</v>
       </c>
       <c r="E226" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11166,7 +11165,7 @@
       </c>
       <c r="D227" s="5">
         <f t="shared" si="6"/>
-        <v>10200</v>
+        <v>8500</v>
       </c>
       <c r="E227" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11242,7 +11241,7 @@
       </c>
       <c r="D229" s="5">
         <f t="shared" si="6"/>
-        <v>39600</v>
+        <v>33000</v>
       </c>
       <c r="E229" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11282,7 +11281,7 @@
       </c>
       <c r="D230" s="5">
         <f t="shared" si="6"/>
-        <v>33400</v>
+        <v>27833.333333333314</v>
       </c>
       <c r="E230" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11322,7 +11321,7 @@
       </c>
       <c r="D231" s="5">
         <f t="shared" si="6"/>
-        <v>19000</v>
+        <v>15833.333333333328</v>
       </c>
       <c r="E231" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11362,7 +11361,7 @@
       </c>
       <c r="D232" s="5">
         <f t="shared" si="6"/>
-        <v>28200</v>
+        <v>23500</v>
       </c>
       <c r="E232" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11402,7 +11401,7 @@
       </c>
       <c r="D233" s="5">
         <f t="shared" si="6"/>
-        <v>70200</v>
+        <v>58500</v>
       </c>
       <c r="E233" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11442,7 +11441,7 @@
       </c>
       <c r="D234" s="5">
         <f t="shared" si="6"/>
-        <v>82800</v>
+        <v>69000</v>
       </c>
       <c r="E234" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11482,7 +11481,7 @@
       </c>
       <c r="D235" s="5">
         <f t="shared" si="6"/>
-        <v>12200</v>
+        <v>10166.666666666664</v>
       </c>
       <c r="E235" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11522,7 +11521,7 @@
       </c>
       <c r="D236" s="5">
         <f t="shared" si="6"/>
-        <v>178600</v>
+        <v>148833.33333333326</v>
       </c>
       <c r="E236" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11562,7 +11561,7 @@
       </c>
       <c r="D237" s="5">
         <f t="shared" si="6"/>
-        <v>197000</v>
+        <v>164166.66666666663</v>
       </c>
       <c r="E237" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11602,7 +11601,7 @@
       </c>
       <c r="D238" s="5">
         <f t="shared" si="6"/>
-        <v>59200</v>
+        <v>49333.333333333314</v>
       </c>
       <c r="E238" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11642,7 +11641,7 @@
       </c>
       <c r="D239" s="5">
         <f t="shared" si="6"/>
-        <v>137000</v>
+        <v>114166.66666666663</v>
       </c>
       <c r="E239" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11682,7 +11681,7 @@
       </c>
       <c r="D240" s="5">
         <f t="shared" si="6"/>
-        <v>227600</v>
+        <v>189666.66666666663</v>
       </c>
       <c r="E240" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11722,7 +11721,7 @@
       </c>
       <c r="D241" s="5">
         <f t="shared" si="6"/>
-        <v>266800</v>
+        <v>222333.33333333326</v>
       </c>
       <c r="E241" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11762,7 +11761,7 @@
       </c>
       <c r="D242" s="5">
         <f t="shared" si="6"/>
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="E242" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11802,7 +11801,7 @@
       </c>
       <c r="D243" s="5">
         <f t="shared" si="6"/>
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="E243" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11842,7 +11841,7 @@
       </c>
       <c r="D244" s="5">
         <f t="shared" si="6"/>
-        <v>81200</v>
+        <v>67666.666666666628</v>
       </c>
       <c r="E244" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11882,7 +11881,7 @@
       </c>
       <c r="D245" s="5">
         <f t="shared" si="6"/>
-        <v>39400</v>
+        <v>32833.333333333314</v>
       </c>
       <c r="E245" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11922,7 +11921,7 @@
       </c>
       <c r="D246" s="5">
         <f t="shared" si="6"/>
-        <v>129000</v>
+        <v>107500</v>
       </c>
       <c r="E246" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11962,7 +11961,7 @@
       </c>
       <c r="D247" s="5">
         <f t="shared" si="6"/>
-        <v>129000</v>
+        <v>107500</v>
       </c>
       <c r="E247" s="4" t="str">
         <f t="shared" si="7"/>
@@ -12002,7 +12001,7 @@
       </c>
       <c r="D248" s="5">
         <f t="shared" si="6"/>
-        <v>51800</v>
+        <v>43166.666666666657</v>
       </c>
       <c r="E248" s="4" t="str">
         <f t="shared" si="7"/>
@@ -12042,7 +12041,7 @@
       </c>
       <c r="D249" s="5">
         <f t="shared" si="6"/>
-        <v>129200</v>
+        <v>107666.66666666663</v>
       </c>
       <c r="E249" s="4" t="str">
         <f t="shared" si="7"/>
@@ -12082,7 +12081,7 @@
       </c>
       <c r="D250" s="5">
         <f t="shared" si="6"/>
-        <v>51800</v>
+        <v>43166.666666666657</v>
       </c>
       <c r="E250" s="4" t="str">
         <f t="shared" si="7"/>
@@ -12122,7 +12121,7 @@
       </c>
       <c r="D251" s="5">
         <f t="shared" si="6"/>
-        <v>129000</v>
+        <v>107500</v>
       </c>
       <c r="E251" s="4" t="str">
         <f t="shared" si="7"/>
@@ -12162,7 +12161,7 @@
       </c>
       <c r="D252" s="5">
         <f t="shared" si="6"/>
-        <v>175800</v>
+        <v>146500</v>
       </c>
       <c r="E252" s="4" t="str">
         <f t="shared" si="7"/>
@@ -12202,7 +12201,7 @@
       </c>
       <c r="D253" s="5">
         <f t="shared" si="6"/>
-        <v>51800</v>
+        <v>43166.666666666657</v>
       </c>
       <c r="E253" s="4" t="str">
         <f t="shared" si="7"/>
@@ -12242,7 +12241,7 @@
       </c>
       <c r="D254" s="5">
         <f t="shared" si="6"/>
-        <v>54800</v>
+        <v>45666.666666666657</v>
       </c>
       <c r="E254" s="4" t="str">
         <f t="shared" si="7"/>
@@ -12282,7 +12281,7 @@
       </c>
       <c r="D255" s="5">
         <f t="shared" si="6"/>
-        <v>195000</v>
+        <v>162500</v>
       </c>
       <c r="E255" s="4" t="str">
         <f t="shared" si="7"/>
@@ -12322,7 +12321,7 @@
       </c>
       <c r="D256" s="5">
         <f t="shared" si="6"/>
-        <v>96000</v>
+        <v>80000</v>
       </c>
       <c r="E256" s="4" t="str">
         <f t="shared" si="7"/>
@@ -12362,7 +12361,7 @@
       </c>
       <c r="D257" s="5">
         <f t="shared" si="6"/>
-        <v>237400</v>
+        <v>197833.33333333326</v>
       </c>
       <c r="E257" s="4" t="str">
         <f t="shared" si="7"/>
@@ -12402,7 +12401,7 @@
       </c>
       <c r="D258" s="5">
         <f t="shared" si="6"/>
-        <v>166400</v>
+        <v>138666.66666666663</v>
       </c>
       <c r="E258" s="4" t="str">
         <f t="shared" si="7"/>
@@ -12441,8 +12440,8 @@
         <v>227000</v>
       </c>
       <c r="D259" s="5">
-        <f t="shared" ref="D259:D322" si="8">C259*20%</f>
-        <v>45400</v>
+        <f t="shared" ref="D259:D322" si="8">C259-(C259/1.2)</f>
+        <v>37833.333333333314</v>
       </c>
       <c r="E259" s="4" t="str">
         <f t="shared" ref="E259:E322" si="9">_xlfn.CONCAT(A259," ",B259)</f>
@@ -12482,7 +12481,7 @@
       </c>
       <c r="D260" s="5">
         <f t="shared" si="8"/>
-        <v>19600</v>
+        <v>16333.333333333328</v>
       </c>
       <c r="E260" s="4" t="str">
         <f t="shared" si="9"/>
@@ -12522,7 +12521,7 @@
       </c>
       <c r="D261" s="5">
         <f t="shared" si="8"/>
-        <v>238000</v>
+        <v>198333.33333333326</v>
       </c>
       <c r="E261" s="4" t="str">
         <f t="shared" si="9"/>
@@ -12562,7 +12561,7 @@
       </c>
       <c r="D262" s="5">
         <f t="shared" si="8"/>
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="E262" s="4" t="str">
         <f t="shared" si="9"/>
@@ -12602,7 +12601,7 @@
       </c>
       <c r="D263" s="5">
         <f t="shared" si="8"/>
-        <v>481400</v>
+        <v>401166.66666666651</v>
       </c>
       <c r="E263" s="4" t="str">
         <f t="shared" si="9"/>
@@ -12642,7 +12641,7 @@
       </c>
       <c r="D264" s="5">
         <f t="shared" si="8"/>
-        <v>204200</v>
+        <v>170166.66666666663</v>
       </c>
       <c r="E264" s="4" t="str">
         <f t="shared" si="9"/>
@@ -12682,7 +12681,7 @@
       </c>
       <c r="D265" s="5">
         <f t="shared" si="8"/>
-        <v>129200</v>
+        <v>107666.66666666663</v>
       </c>
       <c r="E265" s="4" t="str">
         <f t="shared" si="9"/>
@@ -12722,7 +12721,7 @@
       </c>
       <c r="D266" s="5">
         <f t="shared" si="8"/>
-        <v>51800</v>
+        <v>43166.666666666657</v>
       </c>
       <c r="E266" s="4" t="str">
         <f t="shared" si="9"/>
@@ -12762,7 +12761,7 @@
       </c>
       <c r="D267" s="5">
         <f t="shared" si="8"/>
-        <v>38600</v>
+        <v>32166.666666666657</v>
       </c>
       <c r="E267" s="4" t="str">
         <f t="shared" si="9"/>
@@ -12802,7 +12801,7 @@
       </c>
       <c r="D268" s="5">
         <f t="shared" si="8"/>
-        <v>19200</v>
+        <v>16000</v>
       </c>
       <c r="E268" s="4" t="str">
         <f t="shared" si="9"/>
@@ -12842,7 +12841,7 @@
       </c>
       <c r="D269" s="5">
         <f t="shared" si="8"/>
-        <v>118800</v>
+        <v>99000</v>
       </c>
       <c r="E269" s="4" t="str">
         <f t="shared" si="9"/>
@@ -12882,7 +12881,7 @@
       </c>
       <c r="D270" s="5">
         <f t="shared" si="8"/>
-        <v>56400</v>
+        <v>47000</v>
       </c>
       <c r="E270" s="4" t="str">
         <f t="shared" si="9"/>
@@ -12922,7 +12921,7 @@
       </c>
       <c r="D271" s="5">
         <f t="shared" si="8"/>
-        <v>362800</v>
+        <v>302333.33333333326</v>
       </c>
       <c r="E271" s="4" t="str">
         <f t="shared" si="9"/>
@@ -12962,7 +12961,7 @@
       </c>
       <c r="D272" s="5">
         <f t="shared" si="8"/>
-        <v>38600</v>
+        <v>32166.666666666657</v>
       </c>
       <c r="E272" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13002,7 +13001,7 @@
       </c>
       <c r="D273" s="5">
         <f t="shared" si="8"/>
-        <v>130800</v>
+        <v>109000</v>
       </c>
       <c r="E273" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13042,7 +13041,7 @@
       </c>
       <c r="D274" s="5">
         <f t="shared" si="8"/>
-        <v>145800</v>
+        <v>121500</v>
       </c>
       <c r="E274" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13082,7 +13081,7 @@
       </c>
       <c r="D275" s="5">
         <f t="shared" si="8"/>
-        <v>126400</v>
+        <v>105333.33333333326</v>
       </c>
       <c r="E275" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13122,7 +13121,7 @@
       </c>
       <c r="D276" s="5">
         <f t="shared" si="8"/>
-        <v>48000</v>
+        <v>40000</v>
       </c>
       <c r="E276" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13162,7 +13161,7 @@
       </c>
       <c r="D277" s="5">
         <f t="shared" si="8"/>
-        <v>191000</v>
+        <v>159166.66666666663</v>
       </c>
       <c r="E277" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13202,7 +13201,7 @@
       </c>
       <c r="D278" s="5">
         <f t="shared" si="8"/>
-        <v>225200</v>
+        <v>187666.66666666663</v>
       </c>
       <c r="E278" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13278,7 +13277,7 @@
       </c>
       <c r="D280" s="5">
         <f t="shared" si="8"/>
-        <v>59400</v>
+        <v>49500</v>
       </c>
       <c r="E280" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13318,7 +13317,7 @@
       </c>
       <c r="D281" s="5">
         <f t="shared" si="8"/>
-        <v>129200</v>
+        <v>107666.66666666663</v>
       </c>
       <c r="E281" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13358,7 +13357,7 @@
       </c>
       <c r="D282" s="5">
         <f t="shared" si="8"/>
-        <v>142800</v>
+        <v>119000</v>
       </c>
       <c r="E282" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13398,7 +13397,7 @@
       </c>
       <c r="D283" s="5">
         <f t="shared" si="8"/>
-        <v>161400</v>
+        <v>134500</v>
       </c>
       <c r="E283" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13438,7 +13437,7 @@
       </c>
       <c r="D284" s="5">
         <f t="shared" si="8"/>
-        <v>118200</v>
+        <v>98500</v>
       </c>
       <c r="E284" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13478,7 +13477,7 @@
       </c>
       <c r="D285" s="5">
         <f t="shared" si="8"/>
-        <v>183600</v>
+        <v>153000</v>
       </c>
       <c r="E285" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13518,7 +13517,7 @@
       </c>
       <c r="D286" s="5">
         <f t="shared" si="8"/>
-        <v>253000</v>
+        <v>210833.33333333326</v>
       </c>
       <c r="E286" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13558,7 +13557,7 @@
       </c>
       <c r="D287" s="5">
         <f t="shared" si="8"/>
-        <v>51200</v>
+        <v>42666.666666666657</v>
       </c>
       <c r="E287" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13598,7 +13597,7 @@
       </c>
       <c r="D288" s="5">
         <f t="shared" si="8"/>
-        <v>74200</v>
+        <v>61833.333333333314</v>
       </c>
       <c r="E288" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13638,7 +13637,7 @@
       </c>
       <c r="D289" s="5">
         <f t="shared" si="8"/>
-        <v>91400</v>
+        <v>76166.666666666628</v>
       </c>
       <c r="E289" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13678,7 +13677,7 @@
       </c>
       <c r="D290" s="5">
         <f t="shared" si="8"/>
-        <v>128400</v>
+        <v>107000</v>
       </c>
       <c r="E290" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13718,7 +13717,7 @@
       </c>
       <c r="D291" s="5">
         <f t="shared" si="8"/>
-        <v>314200</v>
+        <v>261833.33333333326</v>
       </c>
       <c r="E291" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13758,7 +13757,7 @@
       </c>
       <c r="D292" s="5">
         <f t="shared" si="8"/>
-        <v>151200</v>
+        <v>126000</v>
       </c>
       <c r="E292" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13798,7 +13797,7 @@
       </c>
       <c r="D293" s="5">
         <f t="shared" si="8"/>
-        <v>314200</v>
+        <v>261833.33333333326</v>
       </c>
       <c r="E293" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13838,7 +13837,7 @@
       </c>
       <c r="D294" s="5">
         <f t="shared" si="8"/>
-        <v>543200</v>
+        <v>452666.66666666651</v>
       </c>
       <c r="E294" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13878,7 +13877,7 @@
       </c>
       <c r="D295" s="5">
         <f t="shared" si="8"/>
-        <v>128000</v>
+        <v>106666.66666666663</v>
       </c>
       <c r="E295" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13918,7 +13917,7 @@
       </c>
       <c r="D296" s="5">
         <f t="shared" si="8"/>
-        <v>51000</v>
+        <v>42500</v>
       </c>
       <c r="E296" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13958,7 +13957,7 @@
       </c>
       <c r="D297" s="5">
         <f t="shared" si="8"/>
-        <v>82600</v>
+        <v>68833.333333333314</v>
       </c>
       <c r="E297" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13998,7 +13997,7 @@
       </c>
       <c r="D298" s="5">
         <f t="shared" si="8"/>
-        <v>72200</v>
+        <v>60166.666666666628</v>
       </c>
       <c r="E298" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14038,7 +14037,7 @@
       </c>
       <c r="D299" s="5">
         <f t="shared" si="8"/>
-        <v>108800</v>
+        <v>90666.666666666628</v>
       </c>
       <c r="E299" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14078,7 +14077,7 @@
       </c>
       <c r="D300" s="5">
         <f t="shared" si="8"/>
-        <v>135600</v>
+        <v>113000</v>
       </c>
       <c r="E300" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14118,7 +14117,7 @@
       </c>
       <c r="D301" s="5">
         <f t="shared" si="8"/>
-        <v>210800</v>
+        <v>175666.66666666663</v>
       </c>
       <c r="E301" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14158,7 +14157,7 @@
       </c>
       <c r="D302" s="5">
         <f t="shared" si="8"/>
-        <v>96400</v>
+        <v>80333.333333333314</v>
       </c>
       <c r="E302" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14198,7 +14197,7 @@
       </c>
       <c r="D303" s="5">
         <f t="shared" si="8"/>
-        <v>144400</v>
+        <v>120333.33333333326</v>
       </c>
       <c r="E303" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14238,7 +14237,7 @@
       </c>
       <c r="D304" s="5">
         <f t="shared" si="8"/>
-        <v>53800</v>
+        <v>44833.333333333314</v>
       </c>
       <c r="E304" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14278,7 +14277,7 @@
       </c>
       <c r="D305" s="5">
         <f t="shared" si="8"/>
-        <v>74200</v>
+        <v>61833.333333333314</v>
       </c>
       <c r="E305" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14318,7 +14317,7 @@
       </c>
       <c r="D306" s="5">
         <f t="shared" si="8"/>
-        <v>92400</v>
+        <v>77000</v>
       </c>
       <c r="E306" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14358,7 +14357,7 @@
       </c>
       <c r="D307" s="5">
         <f t="shared" si="8"/>
-        <v>108200</v>
+        <v>90166.666666666628</v>
       </c>
       <c r="E307" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14398,7 +14397,7 @@
       </c>
       <c r="D308" s="5">
         <f t="shared" si="8"/>
-        <v>129600</v>
+        <v>108000</v>
       </c>
       <c r="E308" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14438,7 +14437,7 @@
       </c>
       <c r="D309" s="5">
         <f t="shared" si="8"/>
-        <v>128800</v>
+        <v>107333.33333333326</v>
       </c>
       <c r="E309" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14478,7 +14477,7 @@
       </c>
       <c r="D310" s="5">
         <f t="shared" si="8"/>
-        <v>180400</v>
+        <v>150333.33333333326</v>
       </c>
       <c r="E310" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14518,7 +14517,7 @@
       </c>
       <c r="D311" s="5">
         <f t="shared" si="8"/>
-        <v>144400</v>
+        <v>120333.33333333326</v>
       </c>
       <c r="E311" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14558,7 +14557,7 @@
       </c>
       <c r="D312" s="5">
         <f t="shared" si="8"/>
-        <v>291400</v>
+        <v>242833.33333333326</v>
       </c>
       <c r="E312" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14598,7 +14597,7 @@
       </c>
       <c r="D313" s="5">
         <f t="shared" si="8"/>
-        <v>357200</v>
+        <v>297666.66666666651</v>
       </c>
       <c r="E313" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14674,7 +14673,7 @@
       </c>
       <c r="D315" s="5">
         <f t="shared" si="8"/>
-        <v>17000</v>
+        <v>14166.666666666657</v>
       </c>
       <c r="E315" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14714,7 +14713,7 @@
       </c>
       <c r="D316" s="5">
         <f t="shared" si="8"/>
-        <v>16800</v>
+        <v>14000</v>
       </c>
       <c r="E316" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14754,7 +14753,7 @@
       </c>
       <c r="D317" s="5">
         <f t="shared" si="8"/>
-        <v>23000</v>
+        <v>19166.666666666657</v>
       </c>
       <c r="E317" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14794,7 +14793,7 @@
       </c>
       <c r="D318" s="5">
         <f t="shared" si="8"/>
-        <v>30400</v>
+        <v>25333.333333333328</v>
       </c>
       <c r="E318" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14834,7 +14833,7 @@
       </c>
       <c r="D319" s="5">
         <f t="shared" si="8"/>
-        <v>16400</v>
+        <v>13666.666666666657</v>
       </c>
       <c r="E319" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14874,7 +14873,7 @@
       </c>
       <c r="D320" s="5">
         <f t="shared" si="8"/>
-        <v>16800</v>
+        <v>14000</v>
       </c>
       <c r="E320" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14914,7 +14913,7 @@
       </c>
       <c r="D321" s="5">
         <f t="shared" si="8"/>
-        <v>23000</v>
+        <v>19166.666666666657</v>
       </c>
       <c r="E321" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14954,7 +14953,7 @@
       </c>
       <c r="D322" s="5">
         <f t="shared" si="8"/>
-        <v>30600</v>
+        <v>25500</v>
       </c>
       <c r="E322" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14993,8 +14992,8 @@
         <v>80000</v>
       </c>
       <c r="D323" s="5">
-        <f t="shared" ref="D323:D337" si="10">C323*20%</f>
-        <v>16000</v>
+        <f t="shared" ref="D323:D337" si="10">C323-(C323/1.2)</f>
+        <v>13333.333333333328</v>
       </c>
       <c r="E323" s="4" t="str">
         <f t="shared" ref="E323:E337" si="11">_xlfn.CONCAT(A323," ",B323)</f>
@@ -15034,7 +15033,7 @@
       </c>
       <c r="D324" s="5">
         <f t="shared" si="10"/>
-        <v>20400</v>
+        <v>17000</v>
       </c>
       <c r="E324" s="4" t="str">
         <f t="shared" si="11"/>
@@ -15110,7 +15109,7 @@
       </c>
       <c r="D326" s="5">
         <f t="shared" si="10"/>
-        <v>39600</v>
+        <v>33000</v>
       </c>
       <c r="E326" s="4" t="str">
         <f t="shared" si="11"/>
@@ -15150,7 +15149,7 @@
       </c>
       <c r="D327" s="5">
         <f t="shared" si="10"/>
-        <v>46600</v>
+        <v>38833.333333333314</v>
       </c>
       <c r="E327" s="4" t="str">
         <f t="shared" si="11"/>
@@ -15190,7 +15189,7 @@
       </c>
       <c r="D328" s="5">
         <f t="shared" si="10"/>
-        <v>55800</v>
+        <v>46500</v>
       </c>
       <c r="E328" s="4" t="str">
         <f t="shared" si="11"/>
@@ -15230,7 +15229,7 @@
       </c>
       <c r="D329" s="5">
         <f t="shared" si="10"/>
-        <v>59600</v>
+        <v>49666.666666666657</v>
       </c>
       <c r="E329" s="4" t="str">
         <f t="shared" si="11"/>
@@ -15270,7 +15269,7 @@
       </c>
       <c r="D330" s="5">
         <f t="shared" si="10"/>
-        <v>95600</v>
+        <v>79666.666666666628</v>
       </c>
       <c r="E330" s="4" t="str">
         <f t="shared" si="11"/>
@@ -15310,7 +15309,7 @@
       </c>
       <c r="D331" s="5">
         <f t="shared" si="10"/>
-        <v>125200</v>
+        <v>104333.33333333331</v>
       </c>
       <c r="E331" s="4" t="str">
         <f t="shared" si="11"/>
@@ -15350,7 +15349,7 @@
       </c>
       <c r="D332" s="5">
         <f t="shared" si="10"/>
-        <v>151400</v>
+        <v>126166.66666666663</v>
       </c>
       <c r="E332" s="4" t="str">
         <f t="shared" si="11"/>
@@ -15390,7 +15389,7 @@
       </c>
       <c r="D333" s="5">
         <f t="shared" si="10"/>
-        <v>225600</v>
+        <v>188000</v>
       </c>
       <c r="E333" s="4" t="str">
         <f t="shared" si="11"/>
@@ -15430,7 +15429,7 @@
       </c>
       <c r="D334" s="5">
         <f t="shared" si="10"/>
-        <v>305400</v>
+        <v>254500</v>
       </c>
       <c r="E334" s="4" t="str">
         <f t="shared" si="11"/>
@@ -15470,7 +15469,7 @@
       </c>
       <c r="D335" s="5">
         <f t="shared" si="10"/>
-        <v>826800</v>
+        <v>689000</v>
       </c>
       <c r="E335" s="4" t="str">
         <f t="shared" si="11"/>
@@ -15510,7 +15509,7 @@
       </c>
       <c r="D336" s="5">
         <f t="shared" si="10"/>
-        <v>1370000</v>
+        <v>1141666.666666666</v>
       </c>
       <c r="E336" s="4" t="str">
         <f t="shared" si="11"/>
@@ -15550,7 +15549,7 @@
       </c>
       <c r="D337" s="5">
         <f t="shared" si="10"/>
-        <v>2342400</v>
+        <v>1952000</v>
       </c>
       <c r="E337" s="4" t="str">
         <f t="shared" si="11"/>
@@ -62023,7 +62022,7 @@
       <c r="G2" s="15" t="s">
         <v>499</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="4">
         <f>COUNTIF(Categoria,"=Abbigliamento")</f>
         <v>11</v>
       </c>
@@ -62047,7 +62046,7 @@
       <c r="G3" s="15" t="s">
         <v>558</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="4">
         <f>COUNTIF(Categoria,"=Alimentari")</f>
         <v>5</v>
       </c>
@@ -62071,7 +62070,7 @@
       <c r="G4" s="15" t="s">
         <v>506</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="4">
         <f>COUNTIF(Categoria,"=Personale")</f>
         <v>4</v>
       </c>
@@ -62095,7 +62094,7 @@
       <c r="G5" s="15" t="s">
         <v>547</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="4">
         <f>COUNTIF(Categoria,"=Hardware")</f>
         <v>4</v>
       </c>

--- a/Esercizio 1a.xlsx
+++ b/Esercizio 1a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladb\OneDrive\Desktop\ANALISI DATA\EPICODE\MODULO 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409AF650-1779-433B-B77A-B9A603057E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18FDB88-4916-460C-9FEF-40DA5AEB4C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assoluti_Iva" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Fatture" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Fatture!$A$1:$E$80</definedName>
     <definedName name="ACCES">Assoluti_Iva!$A$193:$C$227</definedName>
     <definedName name="CAB">Assoluti_Iva!$A$315:$C$324</definedName>
     <definedName name="Categoria">Fatture!$C:$C</definedName>
@@ -42,6 +43,7 @@
     <definedName name="MODEM">Assoluti_Iva!$A$133:$C$149</definedName>
     <definedName name="MON">Assoluti_Iva!$A$2:$C$15</definedName>
     <definedName name="MONLCD">Assoluti_Iva!$A$17:$C$18</definedName>
+    <definedName name="Punteggio">Giudizio!$B:$B</definedName>
     <definedName name="SOFT">Assoluti_Iva!$A$229:$C$278</definedName>
     <definedName name="STAMP">Assoluti_Iva!$A$280:$C$313</definedName>
     <definedName name="TAST">Assoluti_Iva!$A$185:$C$191</definedName>
@@ -68,7 +70,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -90,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="582">
   <si>
     <t>MONITOR</t>
   </si>
@@ -1813,15 +1815,40 @@
   <si>
     <t>ESERCIZIO 6</t>
   </si>
+  <si>
+    <t>respinto</t>
+  </si>
+  <si>
+    <t>sufficiente</t>
+  </si>
+  <si>
+    <t>discreto</t>
+  </si>
+  <si>
+    <t>buono</t>
+  </si>
+  <si>
+    <t>ESERCIZIO 3</t>
+  </si>
+  <si>
+    <t>CATEGORIA</t>
+  </si>
+  <si>
+    <t>N. Fatture</t>
+  </si>
+  <si>
+    <t>Importo totale</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_-[$€]\ * #,##0.00_-;\-[$€]\ * #,##0.00_-;_-[$€]\ * &quot;-&quot;??_-;_-@"/>
     <numFmt numFmtId="165" formatCode="_-[$€-410]\ * #,##0.00_-;\-[$€-410]\ * #,##0.00_-;_-[$€-410]\ * &quot;-&quot;??_-;_-@"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1886,7 +1913,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1908,6 +1935,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1933,7 +1966,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1951,6 +1984,9 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2003,13 +2039,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:C8" headerRowCount="0">
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:D8" headerRowCount="0">
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3" dataDxfId="0">
       <calculatedColumnFormula array="1">_xlfn.IFS(Table_1[[#This Row],[Column2]]&lt;40,"respinto",Table_1[[#This Row],[Column2]]&lt;60,"sufficiente",Table_1[[#This Row],[Column2]]&lt;70,"discreto",Table_1[[#This Row],[Column2]]=70,"buono")</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="4" xr3:uid="{14C6E499-244E-4B3D-9C47-AF6218BCD8F7}" name="Colonna1"/>
   </tableColumns>
   <tableStyleInfo name="Giudizio-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2220,9 +2257,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D337"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -34068,7 +34105,7 @@
   <dimension ref="A1:Z993"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -34094,7 +34131,9 @@
       <c r="C1" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="D1" s="4"/>
+      <c r="D1" s="6" t="s">
+        <v>570</v>
+      </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -34129,10 +34168,17 @@
         <f t="array" ref="C2">_xlfn.IFS(Table_1[[#This Row],[Column2]]&lt;40,"respinto",Table_1[[#This Row],[Column2]]&lt;60,"sufficiente",Table_1[[#This Row],[Column2]]&lt;70,"discreto",Table_1[[#This Row],[Column2]]=70,"buono")</f>
         <v>sufficiente</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="8" t="str">
+        <f>VLOOKUP(Table_1[[#This Row],[Column2]],$F$2:$G$5,2)</f>
+        <v>sufficiente</v>
+      </c>
       <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>574</v>
+      </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -34164,9 +34210,17 @@
         <f t="array" ref="C3">_xlfn.IFS(Table_1[[#This Row],[Column2]]&lt;40,"respinto",Table_1[[#This Row],[Column2]]&lt;60,"sufficiente",Table_1[[#This Row],[Column2]]&lt;70,"discreto",Table_1[[#This Row],[Column2]]=70,"buono")</f>
         <v>discreto</v>
       </c>
+      <c r="D3" s="8" t="str">
+        <f>VLOOKUP(Table_1[[#This Row],[Column2]],$F$2:$G$5,2)</f>
+        <v>discreto</v>
+      </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="F3" s="8">
+        <v>40</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>575</v>
+      </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -34198,9 +34252,17 @@
         <f t="array" ref="C4">_xlfn.IFS(Table_1[[#This Row],[Column2]]&lt;40,"respinto",Table_1[[#This Row],[Column2]]&lt;60,"sufficiente",Table_1[[#This Row],[Column2]]&lt;70,"discreto",Table_1[[#This Row],[Column2]]=70,"buono")</f>
         <v>discreto</v>
       </c>
+      <c r="D4" s="8" t="str">
+        <f>VLOOKUP(Table_1[[#This Row],[Column2]],$F$2:$G$5,2)</f>
+        <v>discreto</v>
+      </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="F4" s="8">
+        <v>60</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>576</v>
+      </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -34232,9 +34294,17 @@
         <f t="array" ref="C5">_xlfn.IFS(Table_1[[#This Row],[Column2]]&lt;40,"respinto",Table_1[[#This Row],[Column2]]&lt;60,"sufficiente",Table_1[[#This Row],[Column2]]&lt;70,"discreto",Table_1[[#This Row],[Column2]]=70,"buono")</f>
         <v>sufficiente</v>
       </c>
+      <c r="D5" s="8" t="str">
+        <f>VLOOKUP(Table_1[[#This Row],[Column2]],$F$2:$G$5,2)</f>
+        <v>sufficiente</v>
+      </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="8">
+        <v>70</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>577</v>
+      </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -34264,6 +34334,10 @@
       </c>
       <c r="C6" s="7" t="str" cm="1">
         <f t="array" ref="C6">_xlfn.IFS(Table_1[[#This Row],[Column2]]&lt;40,"respinto",Table_1[[#This Row],[Column2]]&lt;60,"sufficiente",Table_1[[#This Row],[Column2]]&lt;70,"discreto",Table_1[[#This Row],[Column2]]=70,"buono")</f>
+        <v>buono</v>
+      </c>
+      <c r="D6" s="8" t="str">
+        <f>VLOOKUP(Table_1[[#This Row],[Column2]],$F$2:$G$5,2)</f>
         <v>buono</v>
       </c>
       <c r="E6" s="8"/>
@@ -34300,6 +34374,10 @@
         <f t="array" ref="C7">_xlfn.IFS(Table_1[[#This Row],[Column2]]&lt;40,"respinto",Table_1[[#This Row],[Column2]]&lt;60,"sufficiente",Table_1[[#This Row],[Column2]]&lt;70,"discreto",Table_1[[#This Row],[Column2]]=70,"buono")</f>
         <v>respinto</v>
       </c>
+      <c r="D7" s="8" t="str">
+        <f>VLOOKUP(Table_1[[#This Row],[Column2]],$F$2:$G$5,2)</f>
+        <v>respinto</v>
+      </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -34332,6 +34410,10 @@
       </c>
       <c r="C8" s="7" t="str" cm="1">
         <f t="array" ref="C8">_xlfn.IFS(Table_1[[#This Row],[Column2]]&lt;40,"respinto",Table_1[[#This Row],[Column2]]&lt;60,"sufficiente",Table_1[[#This Row],[Column2]]&lt;70,"discreto",Table_1[[#This Row],[Column2]]=70,"buono")</f>
+        <v>respinto</v>
+      </c>
+      <c r="D8" s="8" t="str">
+        <f>VLOOKUP(Table_1[[#This Row],[Column2]],$F$2:$G$5,2)</f>
         <v>respinto</v>
       </c>
       <c r="E8" s="8"/>
@@ -61947,8 +62029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -61962,7 +62044,11 @@
     <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.88671875" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="24" width="8.6640625" customWidth="1"/>
+    <col min="10" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="24" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -61983,7 +62069,7 @@
       </c>
       <c r="F1" s="11"/>
       <c r="G1" s="16" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
@@ -62022,8 +62108,8 @@
       <c r="G2" s="15" t="s">
         <v>499</v>
       </c>
-      <c r="H2" s="4">
-        <f>COUNTIF(Categoria,"=Abbigliamento")</f>
+      <c r="H2">
+        <f>COUNTIF(Categoria,G2)</f>
         <v>11</v>
       </c>
     </row>
@@ -62046,9 +62132,18 @@
       <c r="G3" s="15" t="s">
         <v>558</v>
       </c>
-      <c r="H3" s="4">
-        <f>COUNTIF(Categoria,"=Alimentari")</f>
+      <c r="H3">
+        <f>COUNTIF(Categoria,G3)</f>
         <v>5</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>579</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>580</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -62070,9 +62165,20 @@
       <c r="G4" s="15" t="s">
         <v>506</v>
       </c>
-      <c r="H4" s="4">
-        <f>COUNTIF(Categoria,"=Personale")</f>
+      <c r="H4">
+        <f>COUNTIF(Categoria,G4)</f>
         <v>4</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="M4">
+        <f>COUNTIF(C2:C80,L4)</f>
+        <v>2</v>
+      </c>
+      <c r="N4" s="19">
+        <f>SUMIF(C2:C80,L4,D2:D80)</f>
+        <v>1569000</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -62094,8 +62200,8 @@
       <c r="G5" s="15" t="s">
         <v>547</v>
       </c>
-      <c r="H5" s="4">
-        <f>COUNTIF(Categoria,"=Hardware")</f>
+      <c r="H5">
+        <f>COUNTIF(Categoria,G5)</f>
         <v>4</v>
       </c>
     </row>
@@ -62156,7 +62262,7 @@
         <v>501</v>
       </c>
       <c r="H8">
-        <f>COUNTIF(Cliente,"=H&amp;B")</f>
+        <f>COUNTIF(Cliente,G8)</f>
         <v>2</v>
       </c>
     </row>
@@ -62180,7 +62286,7 @@
         <v>507</v>
       </c>
       <c r="H9">
-        <f>COUNTIF(Cliente,"=Allstate")</f>
+        <f>COUNTIF(Cliente,G9)</f>
         <v>1</v>
       </c>
     </row>
@@ -62204,7 +62310,7 @@
         <v>509</v>
       </c>
       <c r="H10">
-        <f>COUNTIF(Cliente,"=Canon USA")</f>
+        <f>COUNTIF(Cliente,G10)</f>
         <v>1</v>
       </c>
     </row>
@@ -62228,7 +62334,7 @@
         <v>511</v>
       </c>
       <c r="H11">
-        <f>COUNTIF(Cliente,"=America Online")</f>
+        <f>COUNTIF(Cliente,G11)</f>
         <v>1</v>
       </c>
     </row>
@@ -62252,7 +62358,7 @@
         <v>525</v>
       </c>
       <c r="H12">
-        <f>COUNTIF(Cliente,"=Biobottoms")</f>
+        <f>COUNTIF(Cliente,G12)</f>
         <v>4</v>
       </c>
     </row>
@@ -62276,7 +62382,7 @@
         <v>528</v>
       </c>
       <c r="H13">
-        <f>COUNTIF(Cliente,"=Epcot Center")</f>
+        <f>COUNTIF(Cliente,G13)</f>
         <v>2</v>
       </c>
     </row>
@@ -62300,7 +62406,7 @@
         <v>529</v>
       </c>
       <c r="H14">
-        <f>COUNTIF(Cliente,"=Biergarten")</f>
+        <f>COUNTIF(Cliente,G14)</f>
         <v>1</v>
       </c>
     </row>
@@ -62362,7 +62468,7 @@
         <v>499</v>
       </c>
       <c r="I17" s="14">
-        <f>SUMIF(Categoria,"=Abbigliamento",Fattura)</f>
+        <f>SUMIF(Categoria,G17,Fattura)</f>
         <v>611780</v>
       </c>
     </row>
@@ -62386,7 +62492,7 @@
         <v>558</v>
       </c>
       <c r="I18" s="14">
-        <f>SUMIF(Categoria,"=Alimentari",Fattura)</f>
+        <f>SUMIF(Categoria,G18,Fattura)</f>
         <v>30860</v>
       </c>
     </row>
@@ -62410,7 +62516,7 @@
         <v>506</v>
       </c>
       <c r="I19" s="14">
-        <f>SUMIF(Categoria,"=Personale",Fattura)</f>
+        <f>SUMIF(Categoria,G19,Fattura)</f>
         <v>54000</v>
       </c>
     </row>
@@ -62434,7 +62540,7 @@
         <v>547</v>
       </c>
       <c r="I20" s="14">
-        <f>SUMIF(Categoria,"=Hardware",Fattura)</f>
+        <f>SUMIF(Categoria,G20,Fattura)</f>
         <v>6765600</v>
       </c>
     </row>
@@ -62495,7 +62601,7 @@
         <v>501</v>
       </c>
       <c r="I23" s="14">
-        <f>SUMIF(Cliente,"=H&amp;B",Fattura)</f>
+        <f>SUMIF(Cliente,G23,Fattura)</f>
         <v>73450</v>
       </c>
     </row>
@@ -62519,7 +62625,7 @@
         <v>507</v>
       </c>
       <c r="I24" s="14">
-        <f>SUMIF(Cliente,"=Allstate",Fattura)</f>
+        <f>SUMIF(Cliente,G24,Fattura)</f>
         <v>50800</v>
       </c>
     </row>
@@ -62543,7 +62649,7 @@
         <v>509</v>
       </c>
       <c r="I25" s="14">
-        <f>SUMIF(Cliente,"=Canon USA",Fattura)</f>
+        <f>SUMIF(Cliente,G25,Fattura)</f>
         <v>98450</v>
       </c>
     </row>
@@ -62567,7 +62673,7 @@
         <v>511</v>
       </c>
       <c r="I26" s="14">
-        <f>SUMIF(Cliente,"=America Online",Fattura)</f>
+        <f>SUMIF(Cliente,G26,Fattura)</f>
         <v>7950</v>
       </c>
     </row>
@@ -62591,7 +62697,7 @@
         <v>525</v>
       </c>
       <c r="I27" s="14">
-        <f>SUMIF(Cliente,"=Biobottoms",Fattura)</f>
+        <f>SUMIF(Cliente,G27,Fattura)</f>
         <v>283000</v>
       </c>
     </row>
@@ -62615,7 +62721,7 @@
         <v>528</v>
       </c>
       <c r="I28" s="14">
-        <f>SUMIF(Cliente,"=Epcot Center",Fattura)</f>
+        <f>SUMIF(Cliente,G28,Fattura)</f>
         <v>107700</v>
       </c>
     </row>
@@ -62639,7 +62745,7 @@
         <v>529</v>
       </c>
       <c r="I29" s="14">
-        <f>SUMIF(Cliente,"=Biergarten",Fattura)</f>
+        <f>SUMIF(Cliente,G29,Fattura)</f>
         <v>27270</v>
       </c>
     </row>
@@ -67191,6 +67297,12 @@
       <c r="E1000" s="14"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E80" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4" xr:uid="{CEA0FF59-0492-4DBA-B467-A6F8093F27F4}">
+      <formula1>$C$2:$C$80</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
